--- a/sheets/pp.xlsx
+++ b/sheets/pp.xlsx
@@ -8231,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1430" workbookViewId="0">
-      <selection activeCell="B1448" sqref="B1448"/>
+    <sheetView tabSelected="1" topLeftCell="A759" workbookViewId="0">
+      <selection activeCell="D779" sqref="D779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/sheets/pp.xlsx
+++ b/sheets/pp.xlsx
@@ -15,7 +15,18 @@
   <sheets>
     <sheet name="Intance Data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8231,8 +8242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A759" workbookViewId="0">
-      <selection activeCell="D779" sqref="D779"/>
+    <sheetView tabSelected="1" topLeftCell="C349" workbookViewId="0">
+      <selection activeCell="D373" sqref="D373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
